--- a/POS/public/template_stok.xlsx
+++ b/POS/public/template_stok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_2025\POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47693AD4-1A63-4E1A-A530-7977597AF0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266E0BFC-1164-4826-9EFA-8CB3DF452E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0CF9AACB-8BD8-4F3B-8611-D31F9A8D5C90}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{0CF9AACB-8BD8-4F3B-8611-D31F9A8D5C90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>supplier_id</t>
   </si>
@@ -36,9 +36,6 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>stok_tanggal</t>
-  </si>
-  <si>
     <t>stok_jumlah</t>
   </si>
 </sst>
@@ -47,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -78,10 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B137335D-08E2-4D80-B8F0-D41769F6BF8B}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +407,7 @@
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,14 +417,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -438,15 +431,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <f ca="1">TODAY()</f>
-        <v>45759</v>
-      </c>
-      <c r="E2">
+      <c r="D2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -456,15 +445,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D5" ca="1" si="0">TODAY()</f>
-        <v>45759</v>
-      </c>
-      <c r="E3">
+      <c r="D3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -474,15 +459,11 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45759</v>
-      </c>
-      <c r="E4">
+      <c r="D4">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
     </row>
   </sheetData>
